--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.86401033333333</v>
+        <v>1.738079666666666</v>
       </c>
       <c r="H2">
-        <v>59.592031</v>
+        <v>5.214238999999999</v>
       </c>
       <c r="I2">
-        <v>0.7502237312744107</v>
+        <v>0.2081154188575857</v>
       </c>
       <c r="J2">
-        <v>0.7502237312744106</v>
+        <v>0.2081154188575857</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3246166666666667</v>
+        <v>0.1546876666666667</v>
       </c>
       <c r="N2">
-        <v>0.97385</v>
+        <v>0.464063</v>
       </c>
       <c r="O2">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.448188821038888</v>
+        <v>0.2688594881174444</v>
       </c>
       <c r="R2">
-        <v>58.03369938935</v>
+        <v>2.419735393057</v>
       </c>
       <c r="S2">
-        <v>0.508101241661759</v>
+        <v>0.2081154188575857</v>
       </c>
       <c r="T2">
-        <v>0.508101241661759</v>
+        <v>0.2081154188575857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.86401033333333</v>
+        <v>4.080633</v>
       </c>
       <c r="H3">
-        <v>59.592031</v>
+        <v>12.241899</v>
       </c>
       <c r="I3">
-        <v>0.7502237312744107</v>
+        <v>0.4886097353798435</v>
       </c>
       <c r="J3">
-        <v>0.7502237312744106</v>
+        <v>0.4886097353798435</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.464063</v>
       </c>
       <c r="O3">
-        <v>0.3227337119839657</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3227337119839657</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.072717409105889</v>
+        <v>0.6312235972929999</v>
       </c>
       <c r="R3">
-        <v>27.654456681953</v>
+        <v>5.681012375637</v>
       </c>
       <c r="S3">
-        <v>0.2421224896126517</v>
+        <v>0.4886097353798435</v>
       </c>
       <c r="T3">
-        <v>0.2421224896126517</v>
+        <v>0.4886097353798435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.080633</v>
+        <v>2.532805333333334</v>
       </c>
       <c r="H4">
-        <v>12.241899</v>
+        <v>7.598416</v>
       </c>
       <c r="I4">
-        <v>0.1541173037996385</v>
+        <v>0.3032748457625707</v>
       </c>
       <c r="J4">
-        <v>0.1541173037996385</v>
+        <v>0.3032748457625707</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3246166666666667</v>
+        <v>0.1546876666666667</v>
       </c>
       <c r="N4">
-        <v>0.97385</v>
+        <v>0.464063</v>
       </c>
       <c r="O4">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6772662880160344</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.32464148235</v>
+        <v>0.3917937471342223</v>
       </c>
       <c r="R4">
-        <v>11.92177334115</v>
+        <v>3.526143724208</v>
       </c>
       <c r="S4">
-        <v>0.1043784542634206</v>
+        <v>0.3032748457625707</v>
       </c>
       <c r="T4">
-        <v>0.1043784542634206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.080633</v>
-      </c>
-      <c r="H5">
-        <v>12.241899</v>
-      </c>
-      <c r="I5">
-        <v>0.1541173037996385</v>
-      </c>
-      <c r="J5">
-        <v>0.1541173037996385</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1546876666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.464063</v>
-      </c>
-      <c r="O5">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="P5">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="Q5">
-        <v>0.6312235972929999</v>
-      </c>
-      <c r="R5">
-        <v>5.681012375637</v>
-      </c>
-      <c r="S5">
-        <v>0.04973884953621787</v>
-      </c>
-      <c r="T5">
-        <v>0.04973884953621787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.532805333333334</v>
-      </c>
-      <c r="H6">
-        <v>7.598416</v>
-      </c>
-      <c r="I6">
-        <v>0.09565896492595097</v>
-      </c>
-      <c r="J6">
-        <v>0.09565896492595095</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.3246166666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.97385</v>
-      </c>
-      <c r="O6">
-        <v>0.6772662880160344</v>
-      </c>
-      <c r="P6">
-        <v>0.6772662880160344</v>
-      </c>
-      <c r="Q6">
-        <v>0.8221908246222223</v>
-      </c>
-      <c r="R6">
-        <v>7.3997174216</v>
-      </c>
-      <c r="S6">
-        <v>0.06478659209085484</v>
-      </c>
-      <c r="T6">
-        <v>0.06478659209085483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.532805333333334</v>
-      </c>
-      <c r="H7">
-        <v>7.598416</v>
-      </c>
-      <c r="I7">
-        <v>0.09565896492595097</v>
-      </c>
-      <c r="J7">
-        <v>0.09565896492595095</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1546876666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.464063</v>
-      </c>
-      <c r="O7">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="P7">
-        <v>0.3227337119839657</v>
-      </c>
-      <c r="Q7">
-        <v>0.3917937471342223</v>
-      </c>
-      <c r="R7">
-        <v>3.526143724208</v>
-      </c>
-      <c r="S7">
-        <v>0.03087237283509613</v>
-      </c>
-      <c r="T7">
-        <v>0.03087237283509613</v>
+        <v>0.3032748457625707</v>
       </c>
     </row>
   </sheetData>
